--- a/pred_ohlcv/54_21/2020-01-12 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 CON ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-4318413.977496643</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4375984.702496642</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4330929.352496643</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4289378.307496643</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4236813.732496643</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4298889.992496642</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4332931.812496643</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4264848.172496643</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4255837.102496643</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4270162.701496643</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4344754.336496643</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4391311.531496643</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4330236.501496643</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4254143.021496642</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4285681.766496642</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4143507.106496642</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4208086.441496642</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3862883.255389267</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3879904.165389267</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3841857.425389267</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3911943.525389267</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3929965.665389267</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4017573.290389267</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4018069.900389267</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3826475.848789267</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3755889.133789267</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3762092.754789267</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3912777.869789266</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3917483.650789267</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3801841.585789267</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3779814.525789267</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3677476.834889268</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3698502.664889267</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3756574.004889267</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3724534.644889267</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3638428.864889267</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3570845.839889267</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3661957.769889268</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3595375.974889268</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3564838.459889268</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3598379.664889268</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3522459.601889268</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3559505.111889267</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3601909.204889268</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3722056.804889268</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3880751.759889268</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3841203.174889268</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3772618.919889268</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3875244.994889268</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3781129.374889268</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1662339.229589268</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1467900.688689268</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1486436.361489268</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1440491.931389268</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1504051.586389268</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1471010.996389268</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1521072.496389268</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1191021.877689268</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1361107.977689268</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1281510.192689268</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1343085.837689268</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1422183.007689268</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1383135.037689268</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1312047.707689268</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1368617.202689268</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1327566.772689268</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1255602.365689268</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1298154.640689268</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1262610.975689268</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1299155.870689268</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1255602.365689268</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1326189.080689268</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1326958.025689268</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1325843.666989269</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1271276.631989269</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1381500.812789269</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1467919.509089269</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1430373.384089269</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1615687.291389269</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1663245.716389269</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1921585.560189269</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1921585.560189269</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1883038.205189269</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1805943.495189269</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1857506.840189269</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1783916.435189269</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1656259.610189269</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1583169.820189269</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1629226.400189269</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1717613.749389269</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1685574.389389269</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1500020.882389269</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1622671.557389269</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1571608.827389269</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1531038.987389269</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1597620.782389269</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1661699.502389268</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1696241.937389269</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1659196.427389269</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1774337.877389268</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1726278.837389268</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1804875.392389268</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1903472.845089268</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-1863924.260089268</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1795340.005089269</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1897966.080089269</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1856415.035089269</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1856415.035089269</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1794338.775089269</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1794338.775089269</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1725870.663089269</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1760913.713089269</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1716659.593089269</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1777234.008089269</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1694997.460089269</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-1746834.948089269</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-1821927.198089269</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-1920027.198089269</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-1893166.631289269</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-1803894.788089269</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-1852213.718089269</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-1851316.616089269</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2274170.494589269</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2125239.901189269</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-2163286.641189269</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-2036775.915389269</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-2036775.915389269</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-2115873.085389269</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-2075323.270389269</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-2074749.986389269</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-2146337.931389269</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-2100694.073089269</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-2058141.798089269</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-1986053.238089269</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-2029606.743089269</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-1901949.918089269</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-1901206.095789269</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-1937250.375789269</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-1861657.510789269</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-1311702.838989269</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-1389298.163989269</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-1389298.163989269</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1334731.128989269</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1381788.938989269</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1432784.001989269</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1385225.576989269</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1326653.621989269</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1390732.341989269</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-1352184.986989269</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-1481137.679585026</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-1554728.084585026</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-1492151.209585026</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-1557231.159585026</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1484141.369585026</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2014372.273185026</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-1968315.693185026</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-1878204.993185026</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-1877584.033185026</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-1908622.163185026</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-1785971.488185026</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-1734908.758185026</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-1774957.958185026</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1841539.753185026</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1811002.238185026</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1844543.443185026</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1770531.650494985</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1770531.650494985</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1813584.540494984</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1885673.100494985</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1837614.060494985</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1836957.253494984</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-1995652.208494985</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-1956103.623494985</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2024687.878494984</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-1846218.686594984</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-1891274.036594985</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-1849722.991594985</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-1902287.566594985</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1840211.306594985</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1942336.766594985</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-1907293.716594985</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-936411.226323682</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>582902.5125273152</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>519324.4075273152</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>387813.2855273152</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>439877.2455273152</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>424858.7955273151</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>494644.2805273151</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>543203.9355273151</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>508561.3455273152</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>458499.8455273152</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>496546.5855273152</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>333937.6177273151</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>96075.33172731512</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>190691.5667273151</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>192193.4117273152</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>235746.9167273152</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>165160.2017273152</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>258274.5917273152</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>333867.4567273151</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>187876.1077273152</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>306067.2147174861</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>294052.4547174862</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>279871.0327174862</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>228808.3027174862</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>730884.2525174862</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>678372.5472174862</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>642328.2672174862</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>717921.1322174862</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>784645.8172174862</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>622062.8275174862</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>730073.6322174862</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>249580.3195174861</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>296638.1295174861</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>259092.0045174861</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>306650.4295174861</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>248078.4745174861</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>312157.1945174861</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>350704.5495174861</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>350904.5495174861</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>273809.8395174861</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>325373.1845174861</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>251782.7795174861</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>314359.6545174861</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>249279.7045174861</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>176189.9145174861</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>235262.4845174861</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>235809.9825174861</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>131682.0625174861</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-355515.3190825139</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-387554.6790825139</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-418592.8090825139</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-363525.1590825139</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-370862.3324825139</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>1122779.157327315</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>1197370.792327315</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>1150813.597327315</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>1211888.627327315</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>1135795.147327315</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>1167333.892327315</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>1092241.642327315</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 CON ohlcv.xlsx
@@ -1640,7 +1640,7 @@
         <v>-4318413.977496643</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4375984.702496642</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4330929.352496643</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4289378.307496643</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4236813.732496643</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4298889.992496642</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-4332931.812496643</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-4264848.172496643</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-4255837.102496643</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-4270162.701496643</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-4344754.336496643</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-4391311.531496643</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-4330236.501496643</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-4254143.021496642</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-4285681.766496642</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-4143507.106496642</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-4208086.441496642</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3862883.255389267</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3879904.165389267</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3841857.425389267</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3911943.525389267</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-3929965.665389267</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-3826475.848789267</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-3833484.458789267</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-3870029.353789267</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-3755889.133789267</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-3728355.308789267</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-3806647.489789267</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-3762092.754789267</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3816659.789789267</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-3876733.589789267</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-3827673.319789267</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3827673.319789267</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-3912777.869789266</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-3917483.650789267</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3801841.585789267</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-3853404.930789267</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-3779814.525789267</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3677476.834889268</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-3612396.884889267</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3685486.674889267</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-3744559.244889267</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-3698502.664889267</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-3756574.004889267</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3724534.644889267</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-3638428.864889267</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-3570845.839889267</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-3661957.769889268</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3595375.974889268</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3564838.459889268</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-3598379.664889268</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-3522459.601889268</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3559505.111889267</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3602558.001889267</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-3601909.204889268</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-3722056.804889268</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3800653.359889268</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-3880751.759889268</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-3841203.174889268</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3772618.919889268</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3830189.644889268</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3875244.994889268</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3781129.374889268</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1662339.229589268</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-936411.226323682</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>582902.5125273152</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>519324.4075273152</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>453393.8505273152</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>387813.2855273152</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>543203.9355273151</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>508561.3455273152</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>458499.8455273152</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>496546.5855273152</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>395513.2627273151</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>333937.6177273151</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>192193.4117273152</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>235746.9167273152</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>165160.2017273152</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>258274.5917273152</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>333867.4567273151</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>454424.9480174861</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>411261.7811174861</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>373715.6561174861</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>448807.9061174861</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>410260.5511174861</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>332599.8097174861</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>306067.2147174861</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>352123.7947174861</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>262013.0947174862</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>348118.8747174862</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>228808.3027174862</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>171738.1927174862</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>67109.65771748614</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>152070.3218174861</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-3637.209182513834</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>32407.07081748616</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-77871.26708251383</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>368272.4953174862</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>650500.9522174862</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>730884.2525174862</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>735442.6572174862</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>678372.5472174862</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>642328.2672174862</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>717921.1322174862</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>788006.0022174862</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>796441.0877174862</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>784645.8172174862</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>783852.8432174862</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>781852.8432174862</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>622062.8275174862</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>730073.6322174862</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>249580.3195174861</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>296638.1295174861</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>259092.0045174861</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>306650.4295174861</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>248078.4745174861</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>312157.1945174861</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>350704.5495174861</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>350904.5495174861</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>273809.8395174861</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>325373.1845174861</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>251782.7795174861</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>314359.6545174861</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>249279.7045174861</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>176189.9145174861</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>235262.4845174861</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>235809.9825174861</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>131682.0625174861</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-355515.3190825139</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-387554.6790825139</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-239165.0249825139</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-273206.8449825139</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-287917.3350825139</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>1122779.157327315</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>1197370.792327315</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>1150813.597327315</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>1211888.627327315</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>1135795.147327315</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>1167333.892327315</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>1092241.642327315</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
